--- a/online_translators/xlsx_accuracy/yandex_big_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/yandex_big_compatibility.xlsx
@@ -405,10 +405,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4821428571428572</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.6964285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5343137254901961</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,10 +436,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="C6" t="s"/>
     </row>
